--- a/ICILS2023_IDB_R/Documents/Codebooks/ICILS2023MS_Codebook_PUF_(final IDB).xlsx
+++ b/ICILS2023_IDB_R/Documents/Codebooks/ICILS2023MS_Codebook_PUF_(final IDB).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ICILS\ICILS2023\IDB\IDB Public Use\Documents\Codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchile-my.sharepoint.com/personal/domingo_monasterio_uchile_cl/Documents/Documentos/GitHub/icils-multilevel/ICILS2023_IDB_R/Documents/Codebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399F50E4-7268-4C3B-A1DD-AB7D5FBA07F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{399F50E4-7268-4C3B-A1DD-AB7D5FBA07F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82439746-E514-4FDE-9999-6325BB5E5AFA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BCGI3" sheetId="12" r:id="rId1"/>
@@ -13152,7 +13152,7 @@
     <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Currency [0] 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Currency 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Percent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
@@ -13898,14 +13898,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L490"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -29310,13 +29310,13 @@
   <dimension ref="A1:L321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -39275,18 +39275,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E152FDC-2364-4049-89C2-138315D265E8}">
   <dimension ref="A1:L569"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B188" sqref="B188"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="3" max="3" width="69.85546875" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -56811,9 +56811,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5F90A5-8942-4A01-A03B-7D1194CDE71E}">
   <dimension ref="A1:B625"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A88" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.5703125" style="4" bestFit="1" customWidth="1"/>
@@ -61835,7 +61835,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.140625" customWidth="1"/>
@@ -62351,7 +62351,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.140625" style="4" customWidth="1"/>
